--- a/experiments/09_power_eval_1/temperatures.xlsx
+++ b/experiments/09_power_eval_1/temperatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_TEMP2\experiment_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E216069F-9B09-4C18-9305-6FE5CFB14C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A2049B-5037-4D16-9FC0-4D24CF47615A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D9B2736F-8484-4142-882C-94BEA7D2BB42}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>Run 1</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>No B optimal LTF</t>
+  </si>
+  <si>
+    <t>Mod. B Eik LTF</t>
   </si>
 </sst>
 </file>
@@ -1105,6 +1108,9 @@
               <c:f>'imx8 results'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod. B Eik LTF</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1129,13 +1135,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>9.8756715664754705E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1.4236104336040514E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.10381179551904882</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1147,13 +1153,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>9.8756715664754705E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1.4236104336040514E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.10381179551904882</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1196,13 +1202,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>54.661333333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>55.003999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>55.610666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,8 +1759,8 @@
         <c:axId val="359407392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="64.5"/>
-          <c:min val="54"/>
+          <c:max val="62.5"/>
+          <c:min val="53"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2647,6 +2653,9 @@
               <c:f>'imx8 results'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod. B Eik LTF</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2671,13 +2680,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>7.3840428552989126E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>7.3014519104080536E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>4.8996598521392321E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2689,13 +2698,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>7.3840428552989126E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>7.3014519104080536E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>4.8996598521392321E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2738,13 +2747,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>31.982333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>32.829200000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>33.669800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,7 +4984,7 @@
   <dimension ref="A35:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66:J70"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5313,41 +5322,55 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="17" t="e">
+      <c r="A43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="3">
+        <v>54.692</v>
+      </c>
+      <c r="C43" s="3">
+        <v>54.764000000000003</v>
+      </c>
+      <c r="D43" s="3">
+        <v>54.527999999999999</v>
+      </c>
+      <c r="E43" s="17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="17" t="e">
+        <v>54.661333333333339</v>
+      </c>
+      <c r="F43" s="17">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.8756715664754705E-2</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31.904199999999999</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32.081400000000002</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>31.961399999999998</v>
       </c>
       <c r="J43" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31.982333333333333</v>
       </c>
       <c r="K43" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="22"/>
+        <v>7.3840428552989126E-2</v>
+      </c>
+      <c r="L43" s="21">
+        <v>22.787800000000001</v>
+      </c>
+      <c r="M43" s="3">
+        <v>22.682600000000001</v>
+      </c>
+      <c r="N43" s="22">
+        <v>22.566600000000001</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -5822,41 +5845,55 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="17" t="e">
+      <c r="A57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="3">
+        <v>55.015999999999998</v>
+      </c>
+      <c r="C57" s="3">
+        <v>54.984000000000002</v>
+      </c>
+      <c r="D57" s="3">
+        <v>55.012</v>
+      </c>
+      <c r="E57" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="17" t="e">
+        <v>55.003999999999998</v>
+      </c>
+      <c r="F57" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1.4236104336040514E-2</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32.741</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>32.826800000000006</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>32.919800000000002</v>
       </c>
       <c r="J57" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>32.829200000000007</v>
       </c>
       <c r="K57" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="22"/>
+        <v>7.3014519104080536E-2</v>
+      </c>
+      <c r="L57" s="21">
+        <v>22.274999999999999</v>
+      </c>
+      <c r="M57" s="3">
+        <v>22.1572</v>
+      </c>
+      <c r="N57" s="22">
+        <v>22.092199999999998</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
@@ -6331,41 +6368,55 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="17" t="e">
+      <c r="A71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="3">
+        <v>55.712000000000003</v>
+      </c>
+      <c r="C71" s="3">
+        <v>55.652000000000001</v>
+      </c>
+      <c r="D71" s="3">
+        <v>55.468000000000004</v>
+      </c>
+      <c r="E71" s="17">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="17" t="e">
+        <v>55.610666666666667</v>
+      </c>
+      <c r="F71" s="17">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.10381179551904882</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>33.698800000000006</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>33.709800000000001</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>33.600800000000007</v>
       </c>
       <c r="J71" s="17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>33.669800000000002</v>
       </c>
       <c r="K71" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="21"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="22"/>
+        <v>4.8996598521392321E-2</v>
+      </c>
+      <c r="L71" s="21">
+        <v>22.013200000000001</v>
+      </c>
+      <c r="M71" s="3">
+        <v>21.9422</v>
+      </c>
+      <c r="N71" s="22">
+        <v>21.8672</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
